--- a/Lotto/powerball/powerball-past-draws-archive-2017.xlsx
+++ b/Lotto/powerball/powerball-past-draws-archive-2017.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Powerball</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>PowerBall</t>
+  </si>
+  <si>
+    <t>14 July 2017</t>
+  </si>
+  <si>
+    <t>11 July 2017</t>
   </si>
   <si>
     <t>07 July 2017</t>
@@ -544,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -588,22 +594,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -611,22 +617,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -634,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E8">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -657,22 +663,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
         <v>30</v>
       </c>
-      <c r="E9">
-        <v>32</v>
-      </c>
-      <c r="F9">
-        <v>45</v>
-      </c>
       <c r="G9">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -680,22 +686,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F10">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -703,22 +709,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -726,22 +732,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E12">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F12">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G12">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -749,22 +755,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>40</v>
+      </c>
+      <c r="G13">
         <v>18</v>
-      </c>
-      <c r="D13">
-        <v>32</v>
-      </c>
-      <c r="E13">
-        <v>36</v>
-      </c>
-      <c r="F13">
-        <v>45</v>
-      </c>
-      <c r="G13">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -772,22 +778,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F14">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -795,22 +801,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E15">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F15">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G15">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -818,22 +824,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F16">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G16">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -841,22 +847,22 @@
         <v>15</v>
       </c>
       <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>43</v>
+      </c>
+      <c r="G17">
         <v>12</v>
-      </c>
-      <c r="C17">
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <v>25</v>
-      </c>
-      <c r="E17">
-        <v>26</v>
-      </c>
-      <c r="F17">
-        <v>39</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -864,22 +870,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E18">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F18">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -887,22 +893,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F19">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -910,16 +916,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E20">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F20">
         <v>37</v>
@@ -933,22 +939,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E21">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F21">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G21">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -959,19 +965,19 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F22">
         <v>37</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -979,22 +985,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E23">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G23">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1002,22 +1008,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E24">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F24">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1025,22 +1031,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F25">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G25">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1051,19 +1057,19 @@
         <v>8</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D26">
+        <v>21</v>
+      </c>
+      <c r="E26">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>40</v>
-      </c>
       <c r="F26">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G26">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1074,13 +1080,13 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E27">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F27">
         <v>32</v>
@@ -1094,22 +1100,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <v>44</v>
+      </c>
+      <c r="G28">
         <v>7</v>
-      </c>
-      <c r="D28">
-        <v>11</v>
-      </c>
-      <c r="E28">
-        <v>29</v>
-      </c>
-      <c r="F28">
-        <v>40</v>
-      </c>
-      <c r="G28">
-        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1120,19 +1126,19 @@
         <v>2</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E29">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F29">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1140,22 +1146,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F30">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1163,22 +1169,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D31">
+        <v>21</v>
+      </c>
+      <c r="E31">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>27</v>
-      </c>
       <c r="F31">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G31">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1186,22 +1192,22 @@
         <v>30</v>
       </c>
       <c r="B32">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>17</v>
+      </c>
+      <c r="D32">
         <v>20</v>
       </c>
-      <c r="C32">
-        <v>21</v>
-      </c>
-      <c r="D32">
-        <v>24</v>
-      </c>
       <c r="E32">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1209,22 +1215,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E33">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F33">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1232,22 +1238,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D34">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>34</v>
+      </c>
+      <c r="F34">
+        <v>43</v>
+      </c>
+      <c r="G34">
         <v>20</v>
-      </c>
-      <c r="E34">
-        <v>22</v>
-      </c>
-      <c r="F34">
-        <v>36</v>
-      </c>
-      <c r="G34">
-        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1255,22 +1261,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E35">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F35">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1278,22 +1284,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E36">
+        <v>22</v>
+      </c>
+      <c r="F36">
+        <v>36</v>
+      </c>
+      <c r="G36">
         <v>13</v>
-      </c>
-      <c r="F36">
-        <v>15</v>
-      </c>
-      <c r="G36">
-        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1301,22 +1307,22 @@
         <v>35</v>
       </c>
       <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
         <v>7</v>
       </c>
-      <c r="C37">
-        <v>9</v>
-      </c>
-      <c r="D37">
-        <v>10</v>
-      </c>
       <c r="E37">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F37">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G37">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1324,22 +1330,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>13</v>
+      </c>
+      <c r="F38">
         <v>15</v>
       </c>
-      <c r="D38">
-        <v>20</v>
-      </c>
-      <c r="E38">
-        <v>31</v>
-      </c>
-      <c r="F38">
-        <v>37</v>
-      </c>
       <c r="G38">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1347,22 +1353,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E39">
         <v>33</v>
       </c>
       <c r="F39">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G39">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1370,22 +1376,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C40">
+        <v>15</v>
+      </c>
+      <c r="D40">
         <v>20</v>
       </c>
-      <c r="D40">
-        <v>24</v>
-      </c>
       <c r="E40">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F40">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1393,22 +1399,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C41">
+        <v>19</v>
+      </c>
+      <c r="D41">
+        <v>31</v>
+      </c>
+      <c r="E41">
+        <v>33</v>
+      </c>
+      <c r="F41">
+        <v>36</v>
+      </c>
+      <c r="G41">
         <v>10</v>
-      </c>
-      <c r="D41">
-        <v>14</v>
-      </c>
-      <c r="E41">
-        <v>35</v>
-      </c>
-      <c r="F41">
-        <v>44</v>
-      </c>
-      <c r="G41">
-        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1416,22 +1422,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C42">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D42">
         <v>24</v>
       </c>
       <c r="E42">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F42">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G42">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1439,19 +1445,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E43">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F43">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -1462,22 +1468,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E44">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F44">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G44">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1488,16 +1494,16 @@
         <v>9</v>
       </c>
       <c r="C45">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D45">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E45">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F45">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -1508,22 +1514,22 @@
         <v>44</v>
       </c>
       <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
         <v>9</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>20</v>
       </c>
-      <c r="D46">
-        <v>23</v>
-      </c>
       <c r="E46">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F46">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G46">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1531,22 +1537,22 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47">
         <v>14</v>
       </c>
       <c r="E47">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F47">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G47">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1554,22 +1560,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C48">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D48">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E48">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F48">
         <v>42</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1577,22 +1583,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D49">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E49">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F49">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1600,22 +1606,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D50">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E50">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F50">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G50">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1623,22 +1629,22 @@
         <v>49</v>
       </c>
       <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>16</v>
+      </c>
+      <c r="D51">
+        <v>18</v>
+      </c>
+      <c r="E51">
+        <v>30</v>
+      </c>
+      <c r="F51">
+        <v>39</v>
+      </c>
+      <c r="G51">
         <v>2</v>
-      </c>
-      <c r="C51">
-        <v>9</v>
-      </c>
-      <c r="D51">
-        <v>31</v>
-      </c>
-      <c r="E51">
-        <v>40</v>
-      </c>
-      <c r="F51">
-        <v>45</v>
-      </c>
-      <c r="G51">
-        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1646,22 +1652,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D52">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E52">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F52">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G52">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1669,22 +1675,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D53">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E53">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F53">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1692,22 +1698,22 @@
         <v>52</v>
       </c>
       <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
         <v>5</v>
       </c>
-      <c r="C54">
-        <v>7</v>
-      </c>
       <c r="D54">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E54">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F54">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G54">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1715,22 +1721,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C55">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D55">
+        <v>33</v>
+      </c>
+      <c r="E55">
         <v>35</v>
       </c>
-      <c r="E55">
-        <v>36</v>
-      </c>
       <c r="F55">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G55">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1738,22 +1744,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D56">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E56">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F56">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G56">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1761,19 +1767,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C57">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D57">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E57">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F57">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G57">
         <v>10</v>
@@ -1784,22 +1790,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C58">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D58">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E58">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F58">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G58">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1810,18 +1816,64 @@
         <v>6</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D59">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E59">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F59">
         <v>31</v>
       </c>
       <c r="G59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <v>30</v>
+      </c>
+      <c r="E60">
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <v>42</v>
+      </c>
+      <c r="G60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>16</v>
+      </c>
+      <c r="D61">
+        <v>26</v>
+      </c>
+      <c r="E61">
+        <v>29</v>
+      </c>
+      <c r="F61">
+        <v>31</v>
+      </c>
+      <c r="G61">
         <v>8</v>
       </c>
     </row>

--- a/Lotto/powerball/powerball-past-draws-archive-2017.xlsx
+++ b/Lotto/powerball/powerball-past-draws-archive-2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="powerball-past-draws-archive-20" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Powerball</t>
   </si>
@@ -31,6 +31,18 @@
   </si>
   <si>
     <t>PowerBall</t>
+  </si>
+  <si>
+    <t>28 July 2017</t>
+  </si>
+  <si>
+    <t>25 July 2017</t>
+  </si>
+  <si>
+    <t>21 July 2017</t>
+  </si>
+  <si>
+    <t>18 July 2017</t>
   </si>
   <si>
     <t>14 July 2017</t>
@@ -550,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -594,22 +606,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>28</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -617,22 +629,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -640,22 +652,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <v>43</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -663,22 +675,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -686,22 +698,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F10">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -709,22 +721,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11">
         <v>27</v>
       </c>
-      <c r="D11">
-        <v>30</v>
-      </c>
-      <c r="E11">
-        <v>32</v>
-      </c>
       <c r="F11">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -732,22 +744,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E12">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G12">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -755,22 +767,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F13">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G13">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -781,19 +793,19 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E14">
+        <v>23</v>
+      </c>
+      <c r="F14">
         <v>28</v>
       </c>
-      <c r="F14">
-        <v>33</v>
-      </c>
       <c r="G14">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -801,22 +813,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
         <v>32</v>
-      </c>
-      <c r="E15">
-        <v>36</v>
       </c>
       <c r="F15">
         <v>45</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -824,22 +836,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E16">
+        <v>44</v>
+      </c>
+      <c r="F16">
+        <v>45</v>
+      </c>
+      <c r="G16">
         <v>19</v>
-      </c>
-      <c r="F16">
-        <v>35</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -847,22 +859,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>28</v>
       </c>
       <c r="E17">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F17">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G17">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -870,22 +882,22 @@
         <v>16</v>
       </c>
       <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
         <v>7</v>
       </c>
-      <c r="C18">
-        <v>11</v>
-      </c>
       <c r="D18">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F18">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G18">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -893,22 +905,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>32</v>
+      </c>
+      <c r="E19">
+        <v>36</v>
+      </c>
+      <c r="F19">
+        <v>45</v>
+      </c>
+      <c r="G19">
         <v>14</v>
-      </c>
-      <c r="D19">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>26</v>
-      </c>
-      <c r="F19">
-        <v>39</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -916,22 +928,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E20">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F20">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -939,22 +951,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E21">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F21">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -962,22 +974,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E22">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F22">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G22">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -985,22 +997,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E23">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F23">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1008,22 +1020,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E24">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F24">
         <v>37</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1031,22 +1043,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F25">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G25">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1054,22 +1066,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
         <v>9</v>
       </c>
-      <c r="D26">
-        <v>21</v>
-      </c>
       <c r="E26">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F26">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1077,19 +1089,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E27">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F27">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>13</v>
@@ -1100,22 +1112,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F28">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1123,22 +1135,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C29">
         <v>19</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F29">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G29">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1146,22 +1158,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E30">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F30">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G30">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1172,19 +1184,19 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E31">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F31">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1192,22 +1204,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E32">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F32">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1215,22 +1227,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E33">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F33">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G33">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1238,22 +1250,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F34">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G34">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1261,19 +1273,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E35">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F35">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1284,22 +1296,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D36">
         <v>20</v>
       </c>
       <c r="E36">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F36">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G36">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1307,22 +1319,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E37">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F37">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1330,22 +1342,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E38">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F38">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G38">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1353,13 +1365,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C39">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E39">
         <v>33</v>
@@ -1368,7 +1380,7 @@
         <v>34</v>
       </c>
       <c r="G39">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1376,22 +1388,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D40">
         <v>20</v>
       </c>
       <c r="E40">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F40">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1399,22 +1411,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E41">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F41">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1422,22 +1434,22 @@
         <v>40</v>
       </c>
       <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>13</v>
+      </c>
+      <c r="F42">
+        <v>15</v>
+      </c>
+      <c r="G42">
         <v>11</v>
-      </c>
-      <c r="C42">
-        <v>20</v>
-      </c>
-      <c r="D42">
-        <v>24</v>
-      </c>
-      <c r="E42">
-        <v>28</v>
-      </c>
-      <c r="F42">
-        <v>33</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1445,22 +1457,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43">
         <v>10</v>
       </c>
-      <c r="D43">
+      <c r="E43">
+        <v>33</v>
+      </c>
+      <c r="F43">
+        <v>34</v>
+      </c>
+      <c r="G43">
         <v>14</v>
-      </c>
-      <c r="E43">
-        <v>35</v>
-      </c>
-      <c r="F43">
-        <v>44</v>
-      </c>
-      <c r="G43">
-        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1468,22 +1480,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E44">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F44">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G44">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1491,22 +1503,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E45">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F45">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1514,22 +1526,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E46">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F46">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G46">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1537,19 +1549,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47">
         <v>14</v>
       </c>
       <c r="E47">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F47">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G47">
         <v>5</v>
@@ -1560,22 +1572,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D48">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E48">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F48">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G48">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1583,22 +1595,22 @@
         <v>47</v>
       </c>
       <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>15</v>
+      </c>
+      <c r="D49">
+        <v>20</v>
+      </c>
+      <c r="E49">
+        <v>42</v>
+      </c>
+      <c r="F49">
+        <v>45</v>
+      </c>
+      <c r="G49">
         <v>5</v>
-      </c>
-      <c r="C49">
-        <v>12</v>
-      </c>
-      <c r="D49">
-        <v>14</v>
-      </c>
-      <c r="E49">
-        <v>39</v>
-      </c>
-      <c r="F49">
-        <v>42</v>
-      </c>
-      <c r="G49">
-        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1606,22 +1618,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C50">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F50">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1629,22 +1641,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D51">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E51">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F51">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1652,22 +1664,22 @@
         <v>50</v>
       </c>
       <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52">
         <v>20</v>
       </c>
-      <c r="C52">
-        <v>22</v>
-      </c>
       <c r="D52">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E52">
         <v>39</v>
       </c>
       <c r="F52">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G52">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1675,22 +1687,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C53">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E53">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F53">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1698,22 +1710,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C54">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>21</v>
+      </c>
+      <c r="E54">
+        <v>24</v>
+      </c>
+      <c r="F54">
+        <v>42</v>
+      </c>
+      <c r="G54">
         <v>5</v>
-      </c>
-      <c r="D54">
-        <v>16</v>
-      </c>
-      <c r="E54">
-        <v>28</v>
-      </c>
-      <c r="F54">
-        <v>30</v>
-      </c>
-      <c r="G54">
-        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1724,19 +1736,19 @@
         <v>7</v>
       </c>
       <c r="C55">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D55">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E55">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F55">
         <v>39</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1744,22 +1756,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D56">
+        <v>37</v>
+      </c>
+      <c r="E56">
+        <v>39</v>
+      </c>
+      <c r="F56">
+        <v>43</v>
+      </c>
+      <c r="G56">
         <v>17</v>
-      </c>
-      <c r="E56">
-        <v>23</v>
-      </c>
-      <c r="F56">
-        <v>41</v>
-      </c>
-      <c r="G56">
-        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1767,22 +1779,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D57">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E57">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F57">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G57">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1790,22 +1802,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C58">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E58">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F58">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G58">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1813,22 +1825,22 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E59">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F59">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G59">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1836,22 +1848,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C60">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D60">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E60">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F60">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G60">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1859,21 +1871,113 @@
         <v>59</v>
       </c>
       <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>29</v>
+      </c>
+      <c r="D61">
+        <v>35</v>
+      </c>
+      <c r="E61">
+        <v>36</v>
+      </c>
+      <c r="F61">
+        <v>41</v>
+      </c>
+      <c r="G61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>14</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>21</v>
+      </c>
+      <c r="E62">
+        <v>26</v>
+      </c>
+      <c r="F62">
+        <v>38</v>
+      </c>
+      <c r="G62">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
         <v>6</v>
       </c>
-      <c r="C61">
+      <c r="C63">
+        <v>20</v>
+      </c>
+      <c r="D63">
+        <v>25</v>
+      </c>
+      <c r="E63">
+        <v>28</v>
+      </c>
+      <c r="F63">
+        <v>31</v>
+      </c>
+      <c r="G63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>14</v>
+      </c>
+      <c r="D64">
+        <v>30</v>
+      </c>
+      <c r="E64">
+        <v>40</v>
+      </c>
+      <c r="F64">
+        <v>42</v>
+      </c>
+      <c r="G64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65">
         <v>16</v>
       </c>
-      <c r="D61">
+      <c r="D65">
         <v>26</v>
       </c>
-      <c r="E61">
+      <c r="E65">
         <v>29</v>
       </c>
-      <c r="F61">
+      <c r="F65">
         <v>31</v>
       </c>
-      <c r="G61">
+      <c r="G65">
         <v>8</v>
       </c>
     </row>
